--- a/Lecture_4/Assigment_4/output/sbs/group4/table_wiese sudameris.xlsx
+++ b/Lecture_4/Assigment_4/output/sbs/group4/table_wiese sudameris.xlsx
@@ -426,7 +426,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -438,12 +438,12 @@
         <v>10</v>
       </c>
       <c r="E2">
-        <v>68.34</v>
+        <v>79.39</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -455,12 +455,12 @@
         <v>10</v>
       </c>
       <c r="E3">
-        <v>69.01000000000001</v>
+        <v>69.13</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -472,12 +472,12 @@
         <v>10</v>
       </c>
       <c r="E4">
-        <v>69.13</v>
+        <v>69.01000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -489,12 +489,12 @@
         <v>10</v>
       </c>
       <c r="E5">
-        <v>79.39</v>
+        <v>68.34</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -506,12 +506,12 @@
         <v>10</v>
       </c>
       <c r="E6">
-        <v>80.52</v>
+        <v>93.40000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="E7">
-        <v>80.59999999999999</v>
+        <v>91.87</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -545,7 +545,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
@@ -557,12 +557,12 @@
         <v>10</v>
       </c>
       <c r="E9">
-        <v>91.87</v>
+        <v>80.59999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
@@ -574,12 +574,12 @@
         <v>10</v>
       </c>
       <c r="E10">
-        <v>93.40000000000001</v>
+        <v>80.52</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -591,12 +591,12 @@
         <v>10</v>
       </c>
       <c r="E11">
-        <v>76.56</v>
+        <v>91.53</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
@@ -608,12 +608,12 @@
         <v>10</v>
       </c>
       <c r="E12">
-        <v>76.79000000000001</v>
+        <v>90.53</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
@@ -630,7 +630,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
@@ -642,12 +642,12 @@
         <v>10</v>
       </c>
       <c r="E14">
-        <v>90.53</v>
+        <v>76.79000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
@@ -659,12 +659,12 @@
         <v>10</v>
       </c>
       <c r="E15">
-        <v>91.53</v>
+        <v>76.56</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
@@ -676,12 +676,12 @@
         <v>10</v>
       </c>
       <c r="E16">
-        <v>96.23</v>
+        <v>99.3</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B17" t="s">
         <v>7</v>
@@ -693,7 +693,7 @@
         <v>10</v>
       </c>
       <c r="E17">
-        <v>96.77</v>
+        <v>97.54000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -715,7 +715,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B19" t="s">
         <v>7</v>
@@ -727,12 +727,12 @@
         <v>10</v>
       </c>
       <c r="E19">
-        <v>97.54000000000001</v>
+        <v>96.77</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B20" t="s">
         <v>7</v>
@@ -744,12 +744,12 @@
         <v>10</v>
       </c>
       <c r="E20">
-        <v>99.3</v>
+        <v>96.23</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
@@ -761,12 +761,12 @@
         <v>10</v>
       </c>
       <c r="E21">
-        <v>97.23</v>
+        <v>98.7</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B22" t="s">
         <v>8</v>
@@ -778,7 +778,7 @@
         <v>10</v>
       </c>
       <c r="E22">
-        <v>98.7</v>
+        <v>97.23</v>
       </c>
     </row>
   </sheetData>
